--- a/risk parity portfolio/data/stock-bond-base_stats.xlsx
+++ b/risk parity portfolio/data/stock-bond-base_stats.xlsx
@@ -434,11 +434,11 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -470,22 +470,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>5.2863029944226092E-2</v>
+        <v>2.6563852092844179E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>0.22985990323114391</v>
+        <v>0.12793910075833809</v>
       </c>
       <c r="D2" s="3">
-        <v>0.28180897680770062</v>
+        <v>0.28595205824514541</v>
       </c>
       <c r="E2" s="3">
-        <v>0.2212145627359246</v>
+        <v>0.24099120091029669</v>
       </c>
       <c r="F2" s="4">
-        <v>6.9782303804192312</v>
+        <v>5.2433827548137426</v>
       </c>
       <c r="G2" s="3">
-        <v>-3.4694469519536142E-18</v>
+        <v>4.7469361532541117E-2</v>
       </c>
       <c r="H2" s="3">
         <v>0.5</v>
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>-1.2219838807968619E-3</v>
+        <v>1.425527286680328E-5</v>
       </c>
       <c r="C3" s="3">
-        <v>2.16783597624115E-5</v>
+        <v>-1.21600806594091E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>8.1184501654238961E-3</v>
+        <v>9.5762639138599059E-3</v>
       </c>
       <c r="E3" s="3">
-        <v>9.981654819095364E-3</v>
+        <v>9.2005850786529182E-3</v>
       </c>
       <c r="F3" s="4">
-        <v>3.946701487189153</v>
+        <v>3.9978529036874551</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>0.95253063846745889</v>
       </c>
       <c r="H3" s="3">
         <v>0.5</v>
@@ -522,20 +522,18 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>5.3408495377782472E-4</v>
+        <v>5.1778780509303957E-4</v>
       </c>
       <c r="C4" s="3">
-        <v>2.730380430981727E-3</v>
+        <v>2.1091294127544291E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>5.0383923537822284E-3</v>
+        <v>6.0820442097941907E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>1.9384461354610501E-3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10.993254219699571</v>
-      </c>
+        <v>1.7831637748742209E-3</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="3">
         <v>0</v>
       </c>
@@ -548,19 +546,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>-3.3623709324170909E-4</v>
+        <v>1.282745072599178E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>8.7544266735435361E-3</v>
+        <v>4.9712898357963109E-3</v>
       </c>
       <c r="D5" s="3">
-        <v>1.8620948806588041E-2</v>
+        <v>2.197366500494824E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>1.271296744978467E-2</v>
+        <v>1.2863785409302631E-2</v>
       </c>
       <c r="F5" s="4">
-        <v>8.1134721379662107</v>
+        <v>7.5520418627592898</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>

--- a/risk parity portfolio/data/stock-bond-base_stats.xlsx
+++ b/risk parity portfolio/data/stock-bond-base_stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -428,17 +428,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:H5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -470,22 +470,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>2.6563852092844179E-2</v>
+        <v>-2.1080005600046529E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>0.12793910075833809</v>
+        <v>3.40000135018379E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>0.28595205824514541</v>
+        <v>0.25884418165594641</v>
       </c>
       <c r="E2" s="3">
-        <v>0.24099120091029669</v>
+        <v>0.2406993946392143</v>
       </c>
       <c r="F2" s="4">
-        <v>5.2433827548137426</v>
+        <v>4.3866013390802809</v>
       </c>
       <c r="G2" s="3">
-        <v>4.7469361532541117E-2</v>
+        <v>4.7029834589120301E-2</v>
       </c>
       <c r="H2" s="3">
         <v>0.5</v>
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>1.425527286680328E-5</v>
+        <v>1.893284436684572E-3</v>
       </c>
       <c r="C3" s="3">
-        <v>-1.21600806594091E-3</v>
+        <v>2.116028267222569E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>9.5762639138599059E-3</v>
+        <v>1.1487678941974E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>9.2005850786529182E-3</v>
+        <v>8.9364856767854307E-3</v>
       </c>
       <c r="F3" s="4">
-        <v>3.9978529036874551</v>
+        <v>4.5977979066823913</v>
       </c>
       <c r="G3" s="3">
-        <v>0.95253063846745889</v>
+        <v>0.95297016541087975</v>
       </c>
       <c r="H3" s="3">
         <v>0.5</v>
@@ -522,16 +522,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>5.1778780509303957E-4</v>
+        <v>5.3410153061506094E-4</v>
       </c>
       <c r="C4" s="3">
-        <v>2.1091294127544291E-3</v>
+        <v>2.108001151472028E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>6.0820442097941907E-3</v>
+        <v>6.6193941695309464E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>1.7831637748742209E-3</v>
+        <v>1.7241753874635661E-3</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3">
@@ -546,19 +546,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>1.282745072599178E-3</v>
+        <v>8.2221931347570276E-4</v>
       </c>
       <c r="C5" s="3">
-        <v>4.9712898357963109E-3</v>
+        <v>3.7788305206840618E-3</v>
       </c>
       <c r="D5" s="3">
-        <v>2.197366500494824E-2</v>
+        <v>2.2813951490178841E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>1.2863785409302631E-2</v>
+        <v>1.243909527920924E-2</v>
       </c>
       <c r="F5" s="4">
-        <v>7.5520418627592898</v>
+        <v>7.3356983256340431</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>

--- a/risk parity portfolio/data/stock-bond-base_stats.xlsx
+++ b/risk parity portfolio/data/stock-bond-base_stats.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Valyrian\risk parity portfolio\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -57,12 +52,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -78,13 +77,6 @@
       <color theme="1"/>
       <name val="楷体"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,27 +111,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,10 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,24 +406,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -465,75 +440,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>-2.1080005600046529E-2</v>
+        <v>0.07365777885837566</v>
       </c>
       <c r="C2" s="3">
-        <v>3.40000135018379E-2</v>
+        <v>0.05442220522713459</v>
       </c>
       <c r="D2" s="3">
-        <v>0.25884418165594641</v>
+        <v>0.3515678480055127</v>
       </c>
       <c r="E2" s="3">
-        <v>0.2406993946392143</v>
+        <v>0.2468408114521051</v>
       </c>
       <c r="F2" s="4">
-        <v>4.3866013390802809</v>
+        <v>5.132754307769783</v>
       </c>
       <c r="G2" s="3">
-        <v>4.7029834589120301E-2</v>
+        <v>0.04629297730800266</v>
       </c>
       <c r="H2" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>1.893284436684572E-3</v>
+        <v>-0.002571603073065809</v>
       </c>
       <c r="C3" s="3">
-        <v>2.116028267222569E-3</v>
+        <v>0.0007618985178674542</v>
       </c>
       <c r="D3" s="3">
-        <v>1.1487678941974E-2</v>
+        <v>0.00888653411843876</v>
       </c>
       <c r="E3" s="3">
-        <v>8.9364856767854307E-3</v>
+        <v>0.009704098525631756</v>
       </c>
       <c r="F3" s="4">
-        <v>4.5977979066823913</v>
+        <v>2.704239470391769</v>
       </c>
       <c r="G3" s="3">
-        <v>0.95297016541087975</v>
+        <v>0.9537070226919974</v>
       </c>
       <c r="H3" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>5.3410153061506094E-4</v>
+        <v>0.0005271083644040608</v>
       </c>
       <c r="C4" s="3">
-        <v>2.108001151472028E-3</v>
+        <v>0.002101013587392675</v>
       </c>
       <c r="D4" s="3">
-        <v>6.6193941695309464E-3</v>
+        <v>0.007149991671969058</v>
       </c>
       <c r="E4" s="3">
-        <v>1.7241753874635661E-3</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>0.001672597872469136</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11.70042393143976</v>
+      </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
@@ -541,24 +518,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>8.2221931347570276E-4</v>
+        <v>0.0009112924643961406</v>
       </c>
       <c r="C5" s="3">
-        <v>3.7788305206840618E-3</v>
+        <v>0.00331440046351128</v>
       </c>
       <c r="D5" s="3">
-        <v>2.2813951490178841E-2</v>
+        <v>0.02374603413665088</v>
       </c>
       <c r="E5" s="3">
-        <v>1.243909527920924E-2</v>
+        <v>0.01278334188290276</v>
       </c>
       <c r="F5" s="4">
-        <v>7.3356983256340431</v>
+        <v>6.781839752700446</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -568,7 +545,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>